--- a/webroot/howtopub/all-profiles.xlsx
+++ b/webroot/howtopub/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-09T11:47:41-08:00</t>
+    <t>2025-02-20T21:19:09-08:00</t>
   </si>
   <si>
     <t>Publisher</t>
